--- a/finetuningselectors/Resources/InputDataUiDemo.xlsx
+++ b/finetuningselectors/Resources/InputDataUiDemo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniela.dumitrascu\Documents\UiPath\BlankProcess2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Projects\finetuningselectors\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF92AFB6-83E9-4A3F-9BA8-907E4CF3D0FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{032F886A-7989-4FD8-A7B3-F14C363BA8C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,6 +103,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CashIn"/>
+    <tableColumn id="2" name="OnUsCheck"/>
+    <tableColumn id="3" name="NotOnUsCheck"/>
+    <tableColumn id="4" name="UseCashCount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,16 +414,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD8F68-307D-4330-9FA0-FBA254FAB9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -439,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>273</v>
       </c>
@@ -453,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>142</v>
       </c>
@@ -467,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>324</v>
       </c>
@@ -483,5 +501,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>